--- a/artfynd/A 28254-2023.xlsx
+++ b/artfynd/A 28254-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>705191</v>
+        <v>2355256</v>
       </c>
       <c r="B2" t="n">
-        <v>101201</v>
+        <v>76907</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1910</v>
+        <v>6436</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dvärglin</t>
+          <t>Gulpudrad spiklav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Radiola linoides</t>
+          <t>Calicium adspersum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Roth</t>
+          <t>Pers.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Stranden NV om FUNKES, Vg</t>
+          <t>Årnäs, träd 13850 (ek), Vg</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>418681.7318415901</v>
+        <v>418748.8210844172</v>
       </c>
       <c r="R2" t="n">
-        <v>6505423.5425952</v>
+        <v>6505592.199708293</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1989-08-27</t>
+          <t>2005-08-16</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1989-08-27</t>
+          <t>2005-08-16</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -776,30 +776,38 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>1 substratenheter # ek</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Mora Aronsson</t>
+          <t>Lars Sjögren</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Olof Janson</t>
+          <t>Andreas Furustam</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>Västergötlands flora 2002</t>
+          <t>Epifyt-inv. Särskilt skyddsvärda träd 2005-2007</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2355256</v>
+        <v>705191</v>
       </c>
       <c r="B3" t="n">
-        <v>76907</v>
+        <v>101201</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,41 +816,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6436</v>
+        <v>1910</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gulpudrad spiklav</t>
+          <t>Dvärglin</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Calicium adspersum</t>
+          <t>Radiola linoides</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Pers.</t>
+          <t>Roth</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Årnäs, träd 13850 (ek), Vg</t>
+          <t>Stranden NV om FUNKES, Vg</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>418748.8210844172</v>
+        <v>418681.7318415901</v>
       </c>
       <c r="R3" t="n">
-        <v>6505592.199708293</v>
+        <v>6505423.5425952</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -866,7 +874,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2005-08-16</t>
+          <t>1989-08-27</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,7 +884,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2005-08-16</t>
+          <t>1989-08-27</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -892,29 +900,21 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>1 substratenheter # ek</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Lars Sjögren</t>
+          <t>Mora Aronsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Andreas Furustam</t>
+          <t>Olof Janson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>Epifyt-inv. Särskilt skyddsvärda träd 2005-2007</t>
+          <t>Västergötlands flora 2002</t>
         </is>
       </c>
     </row>

--- a/artfynd/A 28254-2023.xlsx
+++ b/artfynd/A 28254-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2355256</v>
+        <v>705191</v>
       </c>
       <c r="B2" t="n">
-        <v>76907</v>
+        <v>101201</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6436</v>
+        <v>1910</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gulpudrad spiklav</t>
+          <t>Dvärglin</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Calicium adspersum</t>
+          <t>Radiola linoides</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Pers.</t>
+          <t>Roth</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Årnäs, träd 13850 (ek), Vg</t>
+          <t>Stranden NV om FUNKES, Vg</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>418748.8210844172</v>
+        <v>418681.7318415901</v>
       </c>
       <c r="R2" t="n">
-        <v>6505592.199708293</v>
+        <v>6505423.5425952</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2005-08-16</t>
+          <t>1989-08-27</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2005-08-16</t>
+          <t>1989-08-27</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -776,38 +776,30 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>1 substratenheter # ek</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Lars Sjögren</t>
+          <t>Mora Aronsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Andreas Furustam</t>
+          <t>Olof Janson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>Epifyt-inv. Särskilt skyddsvärda träd 2005-2007</t>
+          <t>Västergötlands flora 2002</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>705191</v>
+        <v>2355256</v>
       </c>
       <c r="B3" t="n">
-        <v>101201</v>
+        <v>76907</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,41 +808,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1910</v>
+        <v>6436</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dvärglin</t>
+          <t>Gulpudrad spiklav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Radiola linoides</t>
+          <t>Calicium adspersum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Roth</t>
+          <t>Pers.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Stranden NV om FUNKES, Vg</t>
+          <t>Årnäs, träd 13850 (ek), Vg</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>418681.7318415901</v>
+        <v>418748.8210844172</v>
       </c>
       <c r="R3" t="n">
-        <v>6505423.5425952</v>
+        <v>6505592.199708293</v>
       </c>
       <c r="S3" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -874,7 +866,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1989-08-27</t>
+          <t>2005-08-16</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -884,7 +876,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1989-08-27</t>
+          <t>2005-08-16</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -900,21 +892,29 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>1 substratenheter # ek</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Mora Aronsson</t>
+          <t>Lars Sjögren</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Olof Janson</t>
+          <t>Andreas Furustam</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>Västergötlands flora 2002</t>
+          <t>Epifyt-inv. Särskilt skyddsvärda träd 2005-2007</t>
         </is>
       </c>
     </row>
